--- a/Lab02/Data/Measurements.xlsx
+++ b/Lab02/Data/Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g_tec/Git/EEK_lab/Lab02/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011D571-78A3-534A-9D0B-C385EDF07BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDB363-49B5-8C48-9982-4D96B3D2EB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="1040" windowWidth="18460" windowHeight="23840" xr2:uid="{60706CDA-CA30-9548-9535-D89923B8545F}"/>
+    <workbookView xWindow="20660" yWindow="1040" windowWidth="20300" windowHeight="23840" xr2:uid="{60706CDA-CA30-9548-9535-D89923B8545F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>Components:</t>
   </si>
@@ -1433,122 +1433,6 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> / I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> approx V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> / I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> ved I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;&gt; I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1586,24 +1470,7 @@
   </si>
   <si>
     <r>
-      <t>I choose 270 over 330 as in reality I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &lt; I</t>
+      <t>found using equation above with values for V</t>
     </r>
     <r>
       <rPr>
@@ -1620,24 +1487,60 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> because of I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> , R</t>
+      <t xml:space="preserve"> and V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>(Maximum)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = (Beta * R</t>
     </r>
     <r>
       <rPr>
@@ -1654,205 +1557,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> would be smaller if I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> was slightly bigger and therfore the calculated should be &lt;300, not exact 300.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>found using equation above with values for V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> and V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Beta * R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 * R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> gir V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = (V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>cc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> * R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>) / (R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> + R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>) = V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> + V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
+      <t xml:space="preserve">) / 10 </t>
     </r>
     <r>
       <rPr>
@@ -1862,7 +1567,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = V</t>
+      <t>For R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> to satisfy Beta * R</t>
     </r>
     <r>
       <rPr>
@@ -1879,7 +1601,16 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> + 0,7</t>
+      <t xml:space="preserve"> &gt; 10 * R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
     </r>
   </si>
   <si>
@@ -1893,15 +1624,15 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>(Maximum)</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Commercial)</t>
     </r>
   </si>
   <si>
@@ -1923,24 +1654,104 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> = (Beta * R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">) / 10 </t>
+      <t xml:space="preserve"> should be below  the calculated max, and the closest is 4,7kohm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Calculated)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Using calculated ratio and commercial value for R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Commercial)</t>
+    </r>
+  </si>
+  <si>
+    <t>Closest available commercial, very good match</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Measuerd)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>R1</t>
     </r>
     <r>
       <rPr>
@@ -1950,7 +1761,168 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>For R</t>
+      <t xml:space="preserve"> (Measured)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>RC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> , using measured data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Measured)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (Calculated)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> , using measured data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -1967,24 +1939,12 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> to satisfy Beta * R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; 10 * R</t>
+      <t xml:space="preserve"> (Calculated)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -1995,10 +1955,30 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / R</t>
     </r>
     <r>
       <rPr>
@@ -2015,126 +1995,21 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> (Commercial)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> should be below  the calculated max, and the closest is 4,7kohm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (Calculated)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Using calculated ratio and commercial value for R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (Commercial)</t>
-    </r>
-  </si>
-  <si>
-    <t>Closest available commercial, very good match</t>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (Measuerd)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>R1</t>
+      <t xml:space="preserve"> , using measured data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -2144,7 +2019,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Measured)</t>
+      <t xml:space="preserve"> (Calculated)</t>
     </r>
   </si>
   <si>
@@ -2158,6 +2033,188 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> - I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>VBE</t>
+  </si>
+  <si>
+    <t>VRC</t>
+  </si>
+  <si>
+    <t>VCE</t>
+  </si>
+  <si>
+    <t>kohm</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>uA</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> approx V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
       <t>C</t>
     </r>
     <r>
@@ -2166,24 +2223,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> = V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>RC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> / R</t>
+      <t xml:space="preserve"> when I</t>
     </r>
     <r>
       <rPr>
@@ -2200,34 +2240,196 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> , using measured data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>R2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> (Measured)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
+      <t xml:space="preserve"> &gt;&gt; I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I choose 270 over 330 as in reality I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> because of I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> , R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> would be smaller if I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> was slightly bigger and therefore the calculated should be &lt;300, not exact 300.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Beta * R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 10 * R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> gives V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = (V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> * R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>) / (R</t>
     </r>
     <r>
       <rPr>
@@ -2244,68 +2446,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> (Calculated)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>R1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> / R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> , using measured data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
+      <t xml:space="preserve"> + R</t>
     </r>
     <r>
       <rPr>
@@ -2322,77 +2463,33 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve"> (Calculated)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>R2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> / R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> , using measured data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>B</t>
+      <t>) = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -2402,56 +2499,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Calculated)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> - I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
+      <t xml:space="preserve"> = V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + 0,7</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference %</t>
   </si>
 </sst>
 </file>
@@ -2459,12 +2528,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2483,6 +2552,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2492,7 +2568,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2500,17 +2576,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D616E8-DD64-B143-8714-532EFEB0CC13}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2856,9 +2977,11 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2891,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2902,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2913,7 +3036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2924,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2935,18 +3058,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2956,8 +3088,18 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="6">
+        <f>B13/1000</f>
+        <v>997.8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2968,8 +3110,18 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="6">
+        <f>B14/1000</f>
+        <v>2.7625999999999999</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2980,8 +3132,18 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2">
+        <f>B12</f>
+        <v>20.010000000000002</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2991,8 +3153,18 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="6">
+        <f>B15</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3002,8 +3174,18 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="12">
+        <f>B16</f>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3026,8 +3208,17 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3035,8 +3226,18 @@
         <f>B18/B17</f>
         <v>187.4495706196528</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="10">
+        <f>B17*10^6</f>
+        <v>19.36861094407697</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3046,13 +3247,33 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="6">
+        <f>B18*1000</f>
+        <v>3.6306378049663359</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="12">
+        <f>B19</f>
+        <v>187.4495706196528</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3063,8 +3284,17 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3075,8 +3305,18 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="14">
+        <f>B29</f>
+        <v>0.68400000000000105</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3087,8 +3327,18 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" ref="F27:F29" si="0">B30</f>
+        <v>9.9800000000000022</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3099,8 +3349,18 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3108,8 +3368,18 @@
         <f>B12-(B25*B13)</f>
         <v>0.68400000000000105</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="0"/>
+        <v>9.9800000000000022</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3388,7 @@
         <v>9.9800000000000022</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3129,8 +3399,17 @@
       <c r="C31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3138,8 +3417,18 @@
         <f>B30-B31</f>
         <v>9.9800000000000022</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="14">
+        <f>B33</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3149,8 +3438,18 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" ref="F33:F35" si="1">B34</f>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3160,8 +3459,18 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -3171,8 +3480,18 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="1"/>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3183,7 +3502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3194,20 +3513,39 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:B40" si="0">((B34-B30)/B30)*100</f>
+        <f t="shared" ref="B38:B40" si="2">((B34-B30)/B30)*100</f>
         <v>-0.10020040080161885</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="20">
+        <f>B37</f>
+        <v>-0.14619883040950271</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3217,25 +3555,60 @@
       <c r="C39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="E39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="20">
+        <f>B38</f>
+        <v>-0.10020040080161885</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.10020040080161885</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="20">
+        <f>B39</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E41" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="21">
+        <f>B40</f>
+        <v>-0.10020040080161885</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -3246,8 +3619,26 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="G45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -3258,8 +3649,28 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="3">
+        <f>B49</f>
+        <v>3.3560624677462956</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L46" s="3">
+        <f>B45*10^-3</f>
+        <v>33.868000000000002</v>
+      </c>
+      <c r="M46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -3270,8 +3681,28 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="3">
+        <f>B50</f>
+        <v>2.6560624677462954</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" s="3">
+        <f>B46*10^-3</f>
+        <v>6.8250000000000002</v>
+      </c>
+      <c r="M47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -3282,8 +3713,28 @@
       <c r="C48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="3">
+        <f>B54</f>
+        <v>12.972835718271392</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L48" s="3">
+        <f>B47*10^-3</f>
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="M48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -3297,8 +3748,28 @@
       <c r="D49" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="3">
+        <f>B55</f>
+        <v>10.316773250525097</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="16">
+        <f>B48</f>
+        <v>675.4</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -3312,8 +3783,18 @@
       <c r="D50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="3">
+        <f>B51*10^3</f>
+        <v>3.93257694365753</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3327,8 +3808,18 @@
       <c r="D51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="3">
+        <f>B53*10^3</f>
+        <v>3.9117088836734903</v>
+      </c>
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3342,8 +3833,18 @@
       <c r="D52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="16">
+        <f>B52*10^6</f>
+        <v>20.868059984040176</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -3372,8 +3873,17 @@
       <c r="D54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3387,8 +3897,18 @@
       <c r="D55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="3">
+        <f>B56</f>
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -3398,8 +3918,18 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="3">
+        <f>B57</f>
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -3409,8 +3939,18 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="3">
+        <f>B61</f>
+        <v>13.23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -3420,8 +3960,18 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="3">
+        <f>B62</f>
+        <v>10.67</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -3431,8 +3981,18 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="3">
+        <f>B58*10^3</f>
+        <v>3.79</v>
+      </c>
+      <c r="I59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -3442,8 +4002,18 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="3">
+        <f>B60*10^3</f>
+        <v>3.77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -3453,8 +4023,18 @@
       <c r="C61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G61" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="16">
+        <f>B59*10^6</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3465,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3476,85 +4056,142 @@
       <c r="C63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G63" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>32</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" ref="B64:B69" si="1">((B57-B50)/B50)*100</f>
+        <f t="shared" ref="B64:B69" si="3">((B57-B50)/B50)*100</f>
         <v>-3.7296738668330831</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="3">
+        <f>B63</f>
+        <v>-3.4880896548063043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.6255347498662003</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="3">
+        <f>B64</f>
+        <v>-3.7296738668330831</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.6805528862174315</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="3">
+        <f>B68</f>
+        <v>1.9823289781308866</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.622684813405932</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="3">
+        <f>B69</f>
+        <v>3.4238103416387924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9823289781308866</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="3">
+        <f>B65</f>
+        <v>-3.6255347498662003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4238103416387924</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="3">
+        <f>B67</f>
+        <v>-3.622684813405932</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G70" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="16">
+        <f>B66</f>
+        <v>-3.6805528862174315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -3565,7 +4202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -3576,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -3587,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -3602,7 +4239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -3617,7 +4254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -3628,10 +4265,10 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -3643,10 +4280,10 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -3657,10 +4294,10 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -3672,27 +4309,27 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="4">
         <f>12.8/2.2</f>
         <v>5.8181818181818183</v>
       </c>
       <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
         <v>70</v>
       </c>
-      <c r="D83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B84">
         <f>(B19 * B81)/10</f>
@@ -3702,12 +4339,12 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B85">
         <v>4700</v>
@@ -3716,12 +4353,12 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B86">
         <f>B83*B85</f>
@@ -3731,12 +4368,12 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B87">
         <v>27000</v>
@@ -3745,10 +4382,10 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3759,7 +4396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -3770,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -3781,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -3792,7 +4429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3803,7 +4440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3813,10 +4450,12 @@
       <c r="C93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B94">
         <v>7.64</v>
@@ -3824,8 +4463,14 @@
       <c r="C94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="H94" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3837,12 +4482,19 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>102</v>
+      </c>
+      <c r="I95" s="2">
+        <f>((B92-B74)/B74)*100</f>
+        <v>0.4000000000000033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>12.96</v>
@@ -3850,10 +4502,17 @@
       <c r="C96" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I96" s="2">
+        <f>((B94-B76)/B76)*100</f>
+        <v>1.8666666666666623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B97">
         <v>2.093</v>
@@ -3861,10 +4520,17 @@
       <c r="C97" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>98</v>
+      </c>
+      <c r="I97" s="2">
+        <f>((B95-B75)/B75)*100</f>
+        <v>1.5572105619499066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B98" s="4">
         <f>B96/B91</f>
@@ -3874,12 +4540,19 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>105</v>
+      </c>
+      <c r="I98" s="2">
+        <f>((B102-B77)/B77)*100</f>
+        <v>-5.3333333333332789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B99" s="4">
         <f>B97/B90</f>
@@ -3889,14 +4562,21 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I99" s="12">
+        <f>((B101-B19)/B19)*100</f>
+        <v>-0.92236703210083637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="4">
+        <v>87</v>
+      </c>
+      <c r="B100" s="5">
         <f>B98-B99</f>
         <v>2.7341396669546935E-5</v>
       </c>
@@ -3904,10 +4584,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3916,7 +4596,17 @@
         <v>185.72059757844255</v>
       </c>
     </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <f>B92-B93-B94</f>
+        <v>1.4200000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>